--- a/According to Projection/Bulit_tree/5.PRJNA_to_GCA/url/PRJNA_GCF(5).xlsx
+++ b/According to Projection/Bulit_tree/5.PRJNA_to_GCA/url/PRJNA_GCF(5).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Z_Work\LX\Data\Bulit_tree\5.PRJNA_to_GCA\url\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26CA5C9-C256-4FEE-8544-88B5FA84173E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6852A-2BF8-49C2-8769-1499F2B28949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="1500" windowWidth="21225" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="870" windowWidth="21225" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>PRJNA41497</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>GCA_000231095.2</t>
-  </si>
-  <si>
-    <t>PRJNA70533</t>
   </si>
   <si>
     <t>Oryza brachyantha</t>
@@ -160,6 +157,36 @@
   </si>
   <si>
     <t>https://ftp.ncbi.nlm.nih.gov/genomes/all/GCF/005/239/225/GCF_005239225.1_ASM523922v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>species</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRJNA70533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oryza glumaepatula</t>
+  </si>
+  <si>
+    <t>Capsella grandiflora</t>
+  </si>
+  <si>
+    <t>Beta vulgaris</t>
+  </si>
+  <si>
+    <t>Musa schizocarpa</t>
+  </si>
+  <si>
+    <t>Cynara cardunculus</t>
+  </si>
+  <si>
+    <t>Olea europaea</t>
+  </si>
+  <si>
+    <t>Populus glandulosa x alba</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,229 +528,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="94.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4533</v>
+      <c r="D2" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E2" s="1">
         <v>4533</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>4533</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>81985</v>
       </c>
       <c r="E3" s="1">
         <v>81985</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1">
+        <v>81985</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3555</v>
+      </c>
+      <c r="F4" s="1">
+        <v>161934</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3555</v>
-      </c>
-      <c r="E4" s="1">
-        <v>161934</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>511145</v>
+      </c>
+      <c r="F5" s="1">
+        <v>562</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>511145</v>
-      </c>
-      <c r="E5" s="1">
-        <v>562</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>59895</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4265</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1">
-        <v>59895</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4265</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>158386</v>
+      </c>
+      <c r="F7" s="1">
+        <v>4146</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1">
-        <v>158386</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4146</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43335</v>
       </c>
       <c r="E8" s="1">
         <v>43335</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="1">
+        <v>43335</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E05C838B-7204-4B95-ACE9-694D87BE6039}"/>
-    <hyperlink ref="G8" r:id="rId2" xr:uid="{76FB0790-DAB5-4112-84F3-2729FA959AC2}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E05C838B-7204-4B95-ACE9-694D87BE6039}"/>
+    <hyperlink ref="H8" r:id="rId2" xr:uid="{76FB0790-DAB5-4112-84F3-2729FA959AC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
